--- a/DCNN_LOG.xlsx
+++ b/DCNN_LOG.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,16 +461,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1695175915956497</v>
+        <v>0.04726080596446991</v>
       </c>
       <c r="C2" t="n">
-        <v>0.415843278169632</v>
+        <v>0.08122792094945908</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8271969556808472</v>
+        <v>0.2842944264411926</v>
       </c>
       <c r="E2" t="n">
-        <v>1.082678079605103</v>
+        <v>0.3021128177642822</v>
       </c>
     </row>
     <row r="3">
@@ -478,16 +478,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1099047809839249</v>
+        <v>0.03959373012185097</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2257567346096039</v>
+        <v>0.06931059807538986</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8643471002578735</v>
+        <v>0.2491337656974792</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7127580642700195</v>
+        <v>0.2559426426887512</v>
       </c>
     </row>
     <row r="4">
@@ -495,16 +495,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1054368615150452</v>
+        <v>0.03822734206914902</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2748425900936127</v>
+        <v>0.09069587290287018</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7525323629379272</v>
+        <v>0.2492071390151978</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9988881349563599</v>
+        <v>0.3189592361450195</v>
       </c>
     </row>
     <row r="5">
@@ -512,16 +512,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.103287011384964</v>
+        <v>0.0372106246650219</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2861934304237366</v>
+        <v>0.1269854307174683</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8846431970596313</v>
+        <v>0.2807058095932007</v>
       </c>
       <c r="E5" t="n">
-        <v>1.034310936927795</v>
+        <v>0.3791537284851074</v>
       </c>
     </row>
     <row r="6">
@@ -529,16 +529,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1028881967067719</v>
+        <v>0.03645170480012894</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3547900021076202</v>
+        <v>0.2928903996944427</v>
       </c>
       <c r="D6" t="n">
-        <v>0.798833966255188</v>
+        <v>0.2878701090812683</v>
       </c>
       <c r="E6" t="n">
-        <v>1.108379006385803</v>
+        <v>0.6046814918518066</v>
       </c>
     </row>
     <row r="7">
@@ -546,16 +546,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1010769680142403</v>
+        <v>0.03574121743440628</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2885955274105072</v>
+        <v>0.3953100442886353</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8362559080123901</v>
+        <v>0.2700785994529724</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8648146390914917</v>
+        <v>0.9527110457420349</v>
       </c>
     </row>
     <row r="8">
@@ -563,16 +563,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.09953355044126511</v>
+        <v>0.03529498353600502</v>
       </c>
       <c r="C8" t="n">
-        <v>1.392001628875732</v>
+        <v>0.2529352605342865</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9146367311477661</v>
+        <v>0.2839377522468567</v>
       </c>
       <c r="E8" t="n">
-        <v>2.314097881317139</v>
+        <v>0.6212633848190308</v>
       </c>
     </row>
     <row r="9">
@@ -580,16 +580,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.09863799810409546</v>
+        <v>0.03489304706454277</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4860025346279144</v>
+        <v>0.1275228410959244</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8769837617874146</v>
+        <v>0.2834340929985046</v>
       </c>
       <c r="E9" t="n">
-        <v>1.393440008163452</v>
+        <v>0.4678270220756531</v>
       </c>
     </row>
     <row r="10">
@@ -597,16 +597,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.09812083840370178</v>
+        <v>0.03450800478458405</v>
       </c>
       <c r="C10" t="n">
-        <v>0.593438446521759</v>
+        <v>0.07478075474500656</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8290125131607056</v>
+        <v>0.276314377784729</v>
       </c>
       <c r="E10" t="n">
-        <v>1.760774254798889</v>
+        <v>0.2977696657180786</v>
       </c>
     </row>
     <row r="11">
@@ -614,16 +614,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.09664299339056015</v>
+        <v>0.03412871435284615</v>
       </c>
       <c r="C11" t="n">
-        <v>1.621198296546936</v>
+        <v>0.1220876947045326</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8347381353378296</v>
+        <v>0.3113571405410767</v>
       </c>
       <c r="E11" t="n">
-        <v>5.034504890441895</v>
+        <v>0.3280681967735291</v>
       </c>
     </row>
     <row r="12">
@@ -631,16 +631,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.09535817056894302</v>
+        <v>0.03381379693746567</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5718176364898682</v>
+        <v>0.345337986946106</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8117231130599976</v>
+        <v>0.2834886312484741</v>
       </c>
       <c r="E12" t="n">
-        <v>2.150700092315674</v>
+        <v>0.6775609254837036</v>
       </c>
     </row>
     <row r="13">
@@ -648,33 +648,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.09454741328954697</v>
+        <v>0.03361589089035988</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5381409525871277</v>
+        <v>0.07900916039943695</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8631135225296021</v>
+        <v>0.2672795653343201</v>
       </c>
       <c r="E13" t="n">
-        <v>2.055526733398438</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.09352672100067139</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2391473650932312</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.855533242225647</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.9709419012069702</v>
+        <v>0.3330511450767517</v>
       </c>
     </row>
   </sheetData>
